--- a/2020/July/Others/Symphony Service Point.xlsx
+++ b/2020/July/Others/Symphony Service Point.xlsx
@@ -669,8 +669,8 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
